--- a/src/assets/data/custbulk.xlsx
+++ b/src/assets/data/custbulk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMS_PROJECT\sms2\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8171DD-7E62-4B1B-9C82-F912FEC2D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B05FC8-316A-4E87-B22A-03923A55A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3075" windowWidth="15300" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,36 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>User Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t/>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Proof Type</t>
-  </si>
-  <si>
-    <t>Proof ID</t>
-  </si>
-  <si>
-    <t>CAF Number</t>
-  </si>
-  <si>
-    <t>STB Number</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t xml:space="preserve">User Name * </t>
+  </si>
+  <si>
+    <t>CAF Number *</t>
+  </si>
+  <si>
+    <t>First Name *</t>
+  </si>
+  <si>
+    <t>Password *</t>
+  </si>
+  <si>
+    <t>Mobile Number *</t>
+  </si>
+  <si>
+    <t>Proof Type *</t>
+  </si>
+  <si>
+    <t>Proof ID *</t>
+  </si>
+  <si>
+    <t>STB Number *</t>
+  </si>
+  <si>
+    <t>Address *</t>
+  </si>
+  <si>
+    <t>Email *</t>
   </si>
 </sst>
 </file>
@@ -374,61 +377,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/data/custbulk.xlsx
+++ b/src/assets/data/custbulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMS_PROJECT\sms2\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B05FC8-316A-4E87-B22A-03923A55A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B04ED-BEC0-40DA-A505-F043C19722D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3075" windowWidth="15300" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Email *</t>
+  </si>
+  <si>
+    <t>City *</t>
+  </si>
+  <si>
+    <t>Area *</t>
+  </si>
+  <si>
+    <t>Pincode *</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +405,7 @@
     <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -427,8 +436,17 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
